--- a/T04_M2_D2_MDM_Metadata_files/T04_M2_D2_Fact_Table_metadata.xlsx
+++ b/T04_M2_D2_MDM_Metadata_files/T04_M2_D2_Fact_Table_metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SEIS732\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aanup\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F0E4B6-C2D0-4FAC-8F7E-1AE92DCCDB7E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0824CD-8E57-4A12-ADD9-C46C3797065E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{5E044E6B-ABB6-4E57-9FF1-1400A39EAA67}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19152" windowHeight="6864" xr2:uid="{5E044E6B-ABB6-4E57-9FF1-1400A39EAA67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,27 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
-    <t>SellingPrice</t>
-  </si>
-  <si>
-    <t>ProcessingFee</t>
-  </si>
-  <si>
-    <t>HandlingFee</t>
-  </si>
-  <si>
-    <t>TransportFee</t>
-  </si>
-  <si>
-    <t>SalesTax</t>
-  </si>
-  <si>
-    <t>VehiclesInStock</t>
-  </si>
-  <si>
-    <t>SalesTransactionID</t>
-  </si>
-  <si>
     <t>Example Value</t>
   </si>
   <si>
@@ -75,13 +54,34 @@
     <t>Total Sale Proce</t>
   </si>
   <si>
-    <t>TotalSalePrice</t>
-  </si>
-  <si>
     <t>Vehicles left in Stock</t>
   </si>
   <si>
     <t>Unique transaction Id</t>
+  </si>
+  <si>
+    <t>Selling_Price</t>
+  </si>
+  <si>
+    <t>Processing_Fee</t>
+  </si>
+  <si>
+    <t>Handling_Fee</t>
+  </si>
+  <si>
+    <t>Transport_Fee</t>
+  </si>
+  <si>
+    <t>Sales_Tax</t>
+  </si>
+  <si>
+    <t>Total_Sale_Price</t>
+  </si>
+  <si>
+    <t>Vehicles_In_Stock</t>
+  </si>
+  <si>
+    <t>Sales_Transaction_ID</t>
   </si>
 </sst>
 </file>
@@ -231,10 +231,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -252,6 +248,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -583,134 +583,134 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33.90625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.36328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="43.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.08984375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.90625" style="2"/>
+    <col min="6" max="6" width="23.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="43.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+    <row r="1" spans="1:8" ht="13.05" x14ac:dyDescent="0.3">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9">
+        <v>30000</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9">
+        <v>500</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="9">
+        <v>6000</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="9">
+        <v>38500</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="9">
+        <v>68</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="11">
-        <v>30000</v>
-      </c>
-      <c r="C3" s="11" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2001</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="11">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="11">
-        <v>500</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="11">
-        <v>1000</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="11">
-        <v>6000</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="11">
-        <v>38500</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="11">
-        <v>68</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="11">
-        <v>2001</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
